--- a/mapping/dhis_mer_checks.xlsx
+++ b/mapping/dhis_mer_checks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agnaldo Samuel\Dropbox\DATIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E57526-0695-43DA-BF01-33270BAE42BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00024DBF-E306-47C7-91FD-6D6D14128093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7090E84-3B80-4484-8AD6-78584D5ED920}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="12795" windowHeight="11295" xr2:uid="{B7090E84-3B80-4484-8AD6-78584D5ED920}"/>
   </bookViews>
   <sheets>
     <sheet name="check_values" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>MER C&amp;T</t>
   </si>
@@ -209,13 +209,40 @@
   </si>
   <si>
     <t>A12</t>
+  </si>
+  <si>
+    <t>MER ATS COMMUNITY</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +263,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -274,22 +309,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 2 2" xfId="1" xr:uid="{E7978BF1-47B5-4A57-B128-5F458E18F77F}"/>
+    <cellStyle name="Normal 11 2 2 3" xfId="2" xr:uid="{84BFC51F-BF01-4F93-8BD5-3106E9250B0A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,15 +671,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD990CC-A918-4D52-9668-BDD688817693}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -789,7 +859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,7 +870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -833,7 +903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -844,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -855,7 +925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -866,7 +936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -877,7 +947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -888,7 +958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -899,7 +969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -910,18 +980,71 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C30:D30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/mapping/dhis_mer_checks.xlsx
+++ b/mapping/dhis_mer_checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agnaldo Samuel\Dropbox\DATIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00024DBF-E306-47C7-91FD-6D6D14128093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF40FA7-DD71-4D82-8E75-76F1A56587B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="12795" windowHeight="11295" xr2:uid="{B7090E84-3B80-4484-8AD6-78584D5ED920}"/>
+    <workbookView xWindow="7320" yWindow="3795" windowWidth="12795" windowHeight="11295" xr2:uid="{B7090E84-3B80-4484-8AD6-78584D5ED920}"/>
   </bookViews>
   <sheets>
     <sheet name="check_values" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>MER C&amp;T</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Negative</t>
+  </si>
+  <si>
+    <t>I61</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>TB Xpert</t>
+  </si>
+  <si>
+    <t>F36</t>
   </si>
 </sst>
 </file>
@@ -671,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD990CC-A918-4D52-9668-BDD688817693}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,10 +975,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,32 +986,32 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,43 +1019,65 @@
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
